--- a/_occupational_therapy/_data/_modified_version/all_data.xlsx
+++ b/_occupational_therapy/_data/_modified_version/all_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13752" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13778" uniqueCount="636">
   <si>
     <t>ID</t>
   </si>
@@ -1903,6 +1903,45 @@
   </si>
   <si>
     <t>Tecnología</t>
+  </si>
+  <si>
+    <t>Estado civil</t>
+  </si>
+  <si>
+    <t>Nunca ha estado casado</t>
+  </si>
+  <si>
+    <t>Viviendo en pareja</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Desviación estándar</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Género</t>
+  </si>
+  <si>
+    <t>Discapacidad cognitiva</t>
+  </si>
+  <si>
+    <t>Discapacidad sensorial/auditiva</t>
+  </si>
+  <si>
+    <t>Sin discapacidad</t>
+  </si>
+  <si>
+    <t>Conteo</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +2002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1971,6 +2010,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2250,7 +2290,308 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Estado civil</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$38:$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Nunca ha estado casado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Viviendo en pareja</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$38:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.9555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4444444444444446E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2809,6 +3150,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2836,6 +3696,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3109,9 +3999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EY91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45705,19 +46595,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E34"/>
+  <dimension ref="B2:T61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>611</v>
       </c>
@@ -45727,8 +46617,11 @@
       <c r="D2" t="s">
         <v>616</v>
       </c>
+      <c r="P2" t="s">
+        <v>613</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>206</v>
       </c>
@@ -45739,8 +46632,20 @@
         <f>C3/90</f>
         <v>0.62222222222222223</v>
       </c>
+      <c r="P3" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>627</v>
+      </c>
+      <c r="R3" t="s">
+        <v>628</v>
+      </c>
+      <c r="S3" t="s">
+        <v>629</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>150</v>
       </c>
@@ -45750,6 +46655,69 @@
       <c r="D4" s="6">
         <f>C4/90</f>
         <v>0.37777777777777777</v>
+      </c>
+      <c r="P4">
+        <v>14.53</v>
+      </c>
+      <c r="Q4">
+        <v>23.38</v>
+      </c>
+      <c r="R4">
+        <v>6.71</v>
+      </c>
+      <c r="S4">
+        <v>45.71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>626</v>
+      </c>
+      <c r="R8" t="s">
+        <v>627</v>
+      </c>
+      <c r="S8" t="s">
+        <v>628</v>
+      </c>
+      <c r="T8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q9">
+        <v>14.53</v>
+      </c>
+      <c r="R9">
+        <v>22.25</v>
+      </c>
+      <c r="S9">
+        <v>5.46</v>
+      </c>
+      <c r="T9">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q10">
+        <v>15.08</v>
+      </c>
+      <c r="R10">
+        <v>25.25</v>
+      </c>
+      <c r="S10">
+        <v>8.14</v>
+      </c>
+      <c r="T10">
+        <v>45.71</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -45837,8 +46805,139 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>623</v>
+      </c>
+      <c r="D37" t="s">
+        <v>634</v>
+      </c>
+      <c r="E37" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>624</v>
+      </c>
+      <c r="D38">
+        <v>86</v>
+      </c>
+      <c r="E38" s="7">
+        <f>D38/90</f>
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>625</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" s="7">
+        <f>D39/90</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>631</v>
+      </c>
+      <c r="D55" t="s">
+        <v>632</v>
+      </c>
+      <c r="E55" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>620</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>390</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>618</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>622</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>619</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>